--- a/database.xlsx
+++ b/database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>database：</t>
   </si>
@@ -123,34 +123,37 @@
     <t>业务类型编码</t>
   </si>
   <si>
-    <t>status</t>
+    <t>product_desc</t>
+  </si>
+  <si>
+    <t>产品介绍</t>
+  </si>
+  <si>
+    <t>op_date</t>
+  </si>
+  <si>
+    <t>product_fee</t>
+  </si>
+  <si>
+    <t>产品资费</t>
+  </si>
+  <si>
+    <t>product_man</t>
+  </si>
+  <si>
+    <t>管理办法</t>
+  </si>
+  <si>
+    <t>product_process</t>
+  </si>
+  <si>
+    <t>操作流程</t>
+  </si>
+  <si>
+    <t>online_stat</t>
   </si>
   <si>
     <t>上下线</t>
-  </si>
-  <si>
-    <t>product_desc</t>
-  </si>
-  <si>
-    <t>产品介绍</t>
-  </si>
-  <si>
-    <t>product_fee</t>
-  </si>
-  <si>
-    <t>产品资费</t>
-  </si>
-  <si>
-    <t>product_man</t>
-  </si>
-  <si>
-    <t>管理办法</t>
-  </si>
-  <si>
-    <t>product_op</t>
-  </si>
-  <si>
-    <t>操作流程</t>
   </si>
   <si>
     <t>product_item</t>
@@ -187,8 +190,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -200,7 +203,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,6 +227,75 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,95 +309,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,13 +325,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -342,6 +338,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -364,187 +367,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,21 +657,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -701,6 +689,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -718,15 +730,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -743,10 +746,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -755,133 +758,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1273,10 +1276,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1440,46 +1443,51 @@
       <c r="B14" t="s">
         <v>36</v>
       </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
       <c r="F14" s="10"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="10"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="10"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:6">
       <c r="A18" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:6">
-      <c r="A19" s="7"/>
+      <c r="A19" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="F19" s="10"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:6">
@@ -1488,10 +1496,10 @@
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:6">
       <c r="A21" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F21" s="10"/>
     </row>
@@ -1503,32 +1511,33 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:6">
       <c r="A23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="10"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:6">
-      <c r="A24" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" ht="18" customHeight="1"/>
-    <row r="26" ht="18" customHeight="1" spans="1:2">
-      <c r="A26" s="2" t="s">
+      <c r="A24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B26" t="s">
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" ht="18" customHeight="1" spans="1:6">
+      <c r="A25" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" ht="18" customHeight="1"/>
+    <row r="27" ht="18" customHeight="1" spans="1:2">
+      <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" ht="18" customHeight="1" spans="1:1">
-      <c r="A27" t="s">
-        <v>47</v>
+      <c r="B27" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:1">
@@ -1538,7 +1547,7 @@
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:1">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:1">
@@ -1551,7 +1560,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" ht="18" customHeight="1"/>
+    <row r="32" ht="18" customHeight="1" spans="1:1">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="33" ht="18" customHeight="1"/>
     <row r="34" ht="18" customHeight="1"/>
     <row r="35" ht="18" customHeight="1"/>
@@ -1565,6 +1578,7 @@
     <row r="43" ht="18" customHeight="1"/>
     <row r="44" ht="18" customHeight="1"/>
     <row r="45" ht="18" customHeight="1"/>
+    <row r="46" ht="18" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
